--- a/3/5/2/3/Reajustables 1982 a 2021 - Mensual.xlsx
+++ b/3/5/2/3/Reajustables 1982 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="481">
   <si>
     <t>Serie</t>
   </si>
@@ -1454,6 +1454,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +1814,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E476"/>
+  <dimension ref="A1:E477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9480,16 +9483,33 @@
         <v>479</v>
       </c>
       <c r="B476">
-        <v>2.88</v>
+        <v>2.52</v>
       </c>
       <c r="C476">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="D476">
-        <v>2.48</v>
+        <v>1.95</v>
       </c>
       <c r="E476">
-        <v>2.73</v>
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" t="s">
+        <v>480</v>
+      </c>
+      <c r="B477">
+        <v>2.79</v>
+      </c>
+      <c r="C477">
+        <v>2.03</v>
+      </c>
+      <c r="D477">
+        <v>2.93</v>
+      </c>
+      <c r="E477">
+        <v>3.11</v>
       </c>
     </row>
   </sheetData>

--- a/3/5/2/3/Reajustables 1982 a 2021 - Mensual.xlsx
+++ b/3/5/2/3/Reajustables 1982 a 2021 - Mensual.xlsx
@@ -9500,16 +9500,16 @@
         <v>480</v>
       </c>
       <c r="B477">
-        <v>2.79</v>
+        <v>2.63</v>
       </c>
       <c r="C477">
         <v>2.03</v>
       </c>
       <c r="D477">
-        <v>2.93</v>
+        <v>2.03</v>
       </c>
       <c r="E477">
-        <v>3.11</v>
+        <v>3.18</v>
       </c>
     </row>
   </sheetData>

--- a/3/5/2/3/Reajustables 1982 a 2021 - Mensual.xlsx
+++ b/3/5/2/3/Reajustables 1982 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="482">
   <si>
     <t>Serie</t>
   </si>
@@ -1457,6 +1457,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1814,7 +1817,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E477"/>
+  <dimension ref="A1:E478"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9512,6 +9515,23 @@
         <v>3.18</v>
       </c>
     </row>
+    <row r="478" spans="1:5">
+      <c r="A478" t="s">
+        <v>481</v>
+      </c>
+      <c r="B478">
+        <v>2.51</v>
+      </c>
+      <c r="C478">
+        <v>2.49</v>
+      </c>
+      <c r="D478">
+        <v>2.58</v>
+      </c>
+      <c r="E478">
+        <v>3.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/3/Reajustables 1982 a 2021 - Mensual.xlsx
+++ b/3/5/2/3/Reajustables 1982 a 2021 - Mensual.xlsx
@@ -9520,16 +9520,16 @@
         <v>481</v>
       </c>
       <c r="B478">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="C478">
-        <v>2.49</v>
+        <v>2.32</v>
       </c>
       <c r="D478">
-        <v>2.58</v>
+        <v>2.61</v>
       </c>
       <c r="E478">
-        <v>3.27</v>
+        <v>3.37</v>
       </c>
     </row>
   </sheetData>

--- a/3/5/2/3/Reajustables 1982 a 2021 - Mensual.xlsx
+++ b/3/5/2/3/Reajustables 1982 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="483">
   <si>
     <t>Serie</t>
   </si>
@@ -1460,6 +1460,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1817,7 +1820,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E478"/>
+  <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9532,6 +9535,23 @@
         <v>3.37</v>
       </c>
     </row>
+    <row r="479" spans="1:5">
+      <c r="A479" t="s">
+        <v>482</v>
+      </c>
+      <c r="B479">
+        <v>2.2</v>
+      </c>
+      <c r="C479">
+        <v>2.15</v>
+      </c>
+      <c r="D479">
+        <v>2.95</v>
+      </c>
+      <c r="E479">
+        <v>3.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/3/Reajustables 1982 a 2021 - Mensual.xlsx
+++ b/3/5/2/3/Reajustables 1982 a 2021 - Mensual.xlsx
@@ -9540,16 +9540,16 @@
         <v>482</v>
       </c>
       <c r="B479">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="C479">
-        <v>2.15</v>
+        <v>2.31</v>
       </c>
       <c r="D479">
-        <v>2.95</v>
+        <v>3.04</v>
       </c>
       <c r="E479">
-        <v>3.4</v>
+        <v>3.56</v>
       </c>
     </row>
   </sheetData>
